--- a/assets/phdi.xlsx
+++ b/assets/phdi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://universitetetitromso-my.sharepoint.com/personal/ama123_uit_no/Documents/Data/Undervisning/sok2011/data/HDI_undp/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="8_{7A124CAD-B9C1-4F77-9665-4BD29A31210A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{392E39F8-77BE-4F48-AA64-91F20DB16AE3}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{7A124CAD-B9C1-4F77-9665-4BD29A31210A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E008AD3-0412-4595-81DF-B63377248C17}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="33690" windowHeight="18870" xr2:uid="{A1CCAC44-C668-4DE0-8502-D2B6AD5A61AA}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="28770" windowHeight="15450" xr2:uid="{A1CCAC44-C668-4DE0-8502-D2B6AD5A61AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -659,9 +659,6 @@
     <t>phdi</t>
   </si>
   <si>
-    <t>diff_hdi_perc</t>
-  </si>
-  <si>
     <t>diff_hdi_rank</t>
   </si>
   <si>
@@ -696,6 +693,9 @@
   </si>
   <si>
     <t>Other</t>
+  </si>
+  <si>
+    <t>diff_phdi</t>
   </si>
 </sst>
 </file>
@@ -780,6 +780,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1081,8 +1085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FD3BB30-2913-446A-BB44-F80ABC439340}">
   <dimension ref="A1:L203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" workbookViewId="0">
-      <selection activeCell="E208" sqref="E208"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1095,7 +1099,7 @@
         <v>203</v>
       </c>
       <c r="B1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C1" t="s">
         <v>204</v>
@@ -1107,25 +1111,25 @@
         <v>206</v>
       </c>
       <c r="F1" t="s">
+        <v>219</v>
+      </c>
+      <c r="G1" t="s">
         <v>207</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>208</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>209</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>210</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>211</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>212</v>
-      </c>
-      <c r="L1" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -1133,7 +1137,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -1171,7 +1175,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -1209,7 +1213,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -1247,7 +1251,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C5" s="1">
         <v>4</v>
@@ -1285,7 +1289,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C6" s="1">
         <v>5</v>
@@ -1323,7 +1327,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C7" s="1">
         <v>6</v>
@@ -1361,7 +1365,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C8" s="1">
         <v>7</v>
@@ -1399,7 +1403,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C9" s="1">
         <v>8</v>
@@ -1437,7 +1441,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C10" s="1">
         <v>9</v>
@@ -1475,7 +1479,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C11" s="1">
         <v>10</v>
@@ -1513,7 +1517,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C12" s="1">
         <v>11</v>
@@ -1551,7 +1555,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C13" s="1">
         <v>12</v>
@@ -1589,7 +1593,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C14" s="1">
         <v>13</v>
@@ -1627,7 +1631,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C15" s="1">
         <v>13</v>
@@ -1665,7 +1669,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C16" s="1">
         <v>15</v>
@@ -1703,7 +1707,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C17" s="1">
         <v>16</v>
@@ -1741,7 +1745,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C18" s="1">
         <v>17</v>
@@ -1779,7 +1783,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C19" s="1">
         <v>18</v>
@@ -1817,7 +1821,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C20" s="1">
         <v>19</v>
@@ -1855,7 +1859,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C21" s="1">
         <v>19</v>
@@ -1893,7 +1897,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C22" s="1">
         <v>21</v>
@@ -1931,7 +1935,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C23" s="1">
         <v>22</v>
@@ -1969,7 +1973,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C24" s="1">
         <v>23</v>
@@ -2007,7 +2011,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C25" s="1">
         <v>23</v>
@@ -2045,7 +2049,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C26" s="1">
         <v>25</v>
@@ -2083,7 +2087,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C27" s="1">
         <v>26</v>
@@ -2121,7 +2125,7 @@
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C28" s="1">
         <v>27</v>
@@ -2159,7 +2163,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C29" s="1">
         <v>28</v>
@@ -2197,7 +2201,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C30" s="1">
         <v>29</v>
@@ -2235,7 +2239,7 @@
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C31" s="1">
         <v>30</v>
@@ -2273,7 +2277,7 @@
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C32" s="1">
         <v>31</v>
@@ -2311,7 +2315,7 @@
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C33" s="1">
         <v>32</v>
@@ -2349,7 +2353,7 @@
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C34" s="1">
         <v>33</v>
@@ -2387,7 +2391,7 @@
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C35" s="1">
         <v>34</v>
@@ -2425,7 +2429,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C36" s="1">
         <v>35</v>
@@ -2463,7 +2467,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C37" s="1">
         <v>35</v>
@@ -2501,7 +2505,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C38" s="1">
         <v>35</v>
@@ -2539,7 +2543,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C39" s="1">
         <v>38</v>
@@ -2577,7 +2581,7 @@
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C40" s="1">
         <v>39</v>
@@ -2615,7 +2619,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C41" s="1">
         <v>40</v>
@@ -2653,7 +2657,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C42" s="1">
         <v>40</v>
@@ -2691,7 +2695,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C43" s="1">
         <v>42</v>
@@ -2729,7 +2733,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C44" s="1">
         <v>42</v>
@@ -2767,7 +2771,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C45" s="1">
         <v>44</v>
@@ -2805,7 +2809,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C46" s="1">
         <v>45</v>
@@ -2843,7 +2847,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C47" s="1">
         <v>46</v>
@@ -2881,7 +2885,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C48" s="1">
         <v>47</v>
@@ -2919,7 +2923,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C49" s="1">
         <v>48</v>
@@ -2957,7 +2961,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C50" s="1">
         <v>49</v>
@@ -2995,7 +2999,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C51" s="1">
         <v>50</v>
@@ -3033,7 +3037,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C52" s="1">
         <v>51</v>
@@ -3071,7 +3075,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C53" s="1">
         <v>52</v>
@@ -3109,7 +3113,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C54" s="1">
         <v>53</v>
@@ -3147,7 +3151,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C55" s="1">
         <v>54</v>
@@ -3185,7 +3189,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C56" s="1">
         <v>55</v>
@@ -3223,7 +3227,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C57" s="1">
         <v>56</v>
@@ -3261,7 +3265,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C58" s="1">
         <v>57</v>
@@ -3299,7 +3303,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C59" s="1">
         <v>58</v>
@@ -3337,7 +3341,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C60" s="1">
         <v>58</v>
@@ -3375,7 +3379,7 @@
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C61" s="1">
         <v>60</v>
@@ -3413,7 +3417,7 @@
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C62" s="1">
         <v>61</v>
@@ -3451,7 +3455,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C63" s="1">
         <v>62</v>
@@ -3489,7 +3493,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C64" s="1">
         <v>63</v>
@@ -3527,7 +3531,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C65" s="1">
         <v>63</v>
@@ -3565,7 +3569,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C66" s="1">
         <v>63</v>
@@ -3603,7 +3607,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C67" s="1">
         <v>66</v>
@@ -3641,7 +3645,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C68" s="1">
         <v>67</v>
@@ -3679,7 +3683,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C69" s="1">
         <v>68</v>
@@ -3717,7 +3721,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C70" s="1">
         <v>68</v>
@@ -3755,7 +3759,7 @@
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C71" s="1">
         <v>70</v>
@@ -3793,7 +3797,7 @@
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C72" s="1">
         <v>71</v>
@@ -3831,7 +3835,7 @@
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C73" s="1">
         <v>72</v>
@@ -3869,7 +3873,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C74" s="1">
         <v>73</v>
@@ -3907,7 +3911,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C75" s="1">
         <v>74</v>
@@ -3945,7 +3949,7 @@
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C76" s="1">
         <v>75</v>
@@ -3983,7 +3987,7 @@
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C77" s="1">
         <v>76</v>
@@ -4021,7 +4025,7 @@
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C78" s="1">
         <v>77</v>
@@ -4059,7 +4063,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C79" s="1">
         <v>78</v>
@@ -4097,7 +4101,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C80" s="1">
         <v>79</v>
@@ -4135,7 +4139,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C81" s="1">
         <v>80</v>
@@ -4173,7 +4177,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C82" s="1">
         <v>80</v>
@@ -4211,7 +4215,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C83" s="1">
         <v>80</v>
@@ -4249,7 +4253,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C84" s="1">
         <v>83</v>
@@ -4287,7 +4291,7 @@
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C85" s="1">
         <v>84</v>
@@ -4325,7 +4329,7 @@
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C86" s="1">
         <v>85</v>
@@ -4363,7 +4367,7 @@
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C87" s="1">
         <v>86</v>
@@ -4401,7 +4405,7 @@
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C88" s="1">
         <v>87</v>
@@ -4439,7 +4443,7 @@
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C89" s="1">
         <v>88</v>
@@ -4477,7 +4481,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C90" s="1">
         <v>89</v>
@@ -4515,7 +4519,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C91" s="1">
         <v>90</v>
@@ -4553,7 +4557,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C92" s="1">
         <v>91</v>
@@ -4591,7 +4595,7 @@
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C93" s="1">
         <v>91</v>
@@ -4629,7 +4633,7 @@
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C94" s="1">
         <v>91</v>
@@ -4667,7 +4671,7 @@
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C95" s="1">
         <v>91</v>
@@ -4705,7 +4709,7 @@
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C96" s="1">
         <v>95</v>
@@ -4743,7 +4747,7 @@
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C97" s="1">
         <v>96</v>
@@ -4781,7 +4785,7 @@
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C98" s="1">
         <v>97</v>
@@ -4819,7 +4823,7 @@
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C99" s="1">
         <v>97</v>
@@ -4857,7 +4861,7 @@
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C100" s="1">
         <v>99</v>
@@ -4895,7 +4899,7 @@
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C101" s="1">
         <v>99</v>
@@ -4933,7 +4937,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C102" s="1">
         <v>101</v>
@@ -4971,7 +4975,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C103" s="1">
         <v>102</v>
@@ -5009,7 +5013,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C104" s="1">
         <v>102</v>
@@ -5047,7 +5051,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C105" s="1">
         <v>104</v>
@@ -5085,7 +5089,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C106" s="1">
         <v>105</v>
@@ -5123,7 +5127,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C107" s="1">
         <v>106</v>
@@ -5161,7 +5165,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C108" s="1">
         <v>106</v>
@@ -5199,7 +5203,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C109" s="1">
         <v>108</v>
@@ -5237,7 +5241,7 @@
         <v>109</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C110" s="1">
         <v>109</v>
@@ -5275,7 +5279,7 @@
         <v>110</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C111" s="1">
         <v>110</v>
@@ -5313,7 +5317,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C112" s="1">
         <v>111</v>
@@ -5351,7 +5355,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C113" s="1">
         <v>112</v>
@@ -5389,7 +5393,7 @@
         <v>113</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C114" s="1">
         <v>112</v>
@@ -5427,7 +5431,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C115" s="1">
         <v>114</v>
@@ -5465,7 +5469,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C116" s="1">
         <v>115</v>
@@ -5503,7 +5507,7 @@
         <v>116</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C117" s="1">
         <v>116</v>
@@ -5541,7 +5545,7 @@
         <v>117</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C118" s="1">
         <v>117</v>
@@ -5579,7 +5583,7 @@
         <v>118</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C119" s="1">
         <v>118</v>
@@ -5617,7 +5621,7 @@
         <v>119</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C120" s="1">
         <v>118</v>
@@ -5655,7 +5659,7 @@
         <v>120</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C121" s="1">
         <v>120</v>
@@ -5693,7 +5697,7 @@
         <v>121</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C122" s="1">
         <v>121</v>
@@ -5731,7 +5735,7 @@
         <v>122</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C123" s="1">
         <v>122</v>
@@ -5769,7 +5773,7 @@
         <v>123</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C124" s="1">
         <v>123</v>
@@ -5807,7 +5811,7 @@
         <v>124</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C125" s="1">
         <v>123</v>
@@ -5845,7 +5849,7 @@
         <v>125</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C126" s="1">
         <v>125</v>
@@ -5883,7 +5887,7 @@
         <v>126</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C127" s="1">
         <v>126</v>
@@ -5921,7 +5925,7 @@
         <v>127</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C128" s="1">
         <v>127</v>
@@ -5959,7 +5963,7 @@
         <v>128</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C129" s="1">
         <v>128</v>
@@ -5997,7 +6001,7 @@
         <v>129</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C130" s="1">
         <v>129</v>
@@ -6035,7 +6039,7 @@
         <v>130</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C131" s="1">
         <v>130</v>
@@ -6073,7 +6077,7 @@
         <v>131</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C132" s="1">
         <v>131</v>
@@ -6111,7 +6115,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C133" s="1">
         <v>132</v>
@@ -6149,7 +6153,7 @@
         <v>133</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C134" s="1">
         <v>133</v>
@@ -6187,7 +6191,7 @@
         <v>134</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C135" s="1">
         <v>134</v>
@@ -6225,7 +6229,7 @@
         <v>135</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C136" s="1">
         <v>135</v>
@@ -6263,7 +6267,7 @@
         <v>136</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C137" s="1">
         <v>136</v>
@@ -6301,7 +6305,7 @@
         <v>137</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C138" s="1">
         <v>137</v>
@@ -6339,7 +6343,7 @@
         <v>138</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C139" s="1">
         <v>138</v>
@@ -6377,7 +6381,7 @@
         <v>139</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C140" s="1">
         <v>139</v>
@@ -6415,7 +6419,7 @@
         <v>140</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C141" s="1">
         <v>140</v>
@@ -6453,7 +6457,7 @@
         <v>141</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C142" s="1">
         <v>140</v>
@@ -6491,7 +6495,7 @@
         <v>142</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C143" s="1">
         <v>140</v>
@@ -6529,7 +6533,7 @@
         <v>143</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C144" s="1">
         <v>143</v>
@@ -6567,7 +6571,7 @@
         <v>144</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C145" s="1">
         <v>144</v>
@@ -6605,7 +6609,7 @@
         <v>145</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C146" s="1">
         <v>145</v>
@@ -6643,7 +6647,7 @@
         <v>146</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C147" s="1">
         <v>146</v>
@@ -6681,7 +6685,7 @@
         <v>147</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C148" s="1">
         <v>146</v>
@@ -6719,7 +6723,7 @@
         <v>148</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C149" s="1">
         <v>148</v>
@@ -6757,7 +6761,7 @@
         <v>149</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C150" s="1">
         <v>149</v>
@@ -6795,7 +6799,7 @@
         <v>150</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C151" s="1">
         <v>150</v>
@@ -6833,7 +6837,7 @@
         <v>151</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C152" s="1">
         <v>151</v>
@@ -6871,7 +6875,7 @@
         <v>152</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C153" s="1">
         <v>152</v>
@@ -6909,7 +6913,7 @@
         <v>153</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C154" s="1">
         <v>153</v>
@@ -6947,7 +6951,7 @@
         <v>154</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C155" s="1">
         <v>154</v>
@@ -6985,7 +6989,7 @@
         <v>155</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C156" s="1">
         <v>155</v>
@@ -7023,7 +7027,7 @@
         <v>156</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C157" s="1">
         <v>156</v>
@@ -7061,7 +7065,7 @@
         <v>157</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C158" s="1">
         <v>156</v>
@@ -7099,7 +7103,7 @@
         <v>158</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C159" s="1">
         <v>158</v>
@@ -7137,7 +7141,7 @@
         <v>159</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C160" s="1">
         <v>159</v>
@@ -7175,7 +7179,7 @@
         <v>160</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C161" s="1">
         <v>160</v>
@@ -7213,7 +7217,7 @@
         <v>161</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C162" s="1">
         <v>161</v>
@@ -7251,7 +7255,7 @@
         <v>162</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C163" s="1">
         <v>162</v>
@@ -7289,7 +7293,7 @@
         <v>163</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C164" s="1">
         <v>163</v>
@@ -7327,7 +7331,7 @@
         <v>164</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C165" s="1">
         <v>163</v>
@@ -7365,7 +7369,7 @@
         <v>165</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C166" s="1">
         <v>165</v>
@@ -7403,7 +7407,7 @@
         <v>166</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C167" s="1">
         <v>166</v>
@@ -7441,7 +7445,7 @@
         <v>167</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C168" s="1">
         <v>166</v>
@@ -7479,7 +7483,7 @@
         <v>168</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C169" s="1">
         <v>168</v>
@@ -7517,7 +7521,7 @@
         <v>169</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C170" s="1">
         <v>169</v>
@@ -7555,7 +7559,7 @@
         <v>170</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C171" s="1">
         <v>170</v>
@@ -7593,7 +7597,7 @@
         <v>171</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C172" s="1">
         <v>171</v>
@@ -7631,7 +7635,7 @@
         <v>172</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C173" s="1">
         <v>172</v>
@@ -7669,7 +7673,7 @@
         <v>173</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C174" s="1">
         <v>173</v>
@@ -7707,7 +7711,7 @@
         <v>174</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C175" s="1">
         <v>174</v>
@@ -7745,7 +7749,7 @@
         <v>175</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C176" s="1">
         <v>175</v>
@@ -7783,7 +7787,7 @@
         <v>176</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C177" s="1">
         <v>176</v>
@@ -7821,7 +7825,7 @@
         <v>177</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C178" s="1">
         <v>177</v>
@@ -7859,7 +7863,7 @@
         <v>178</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C179" s="1">
         <v>178</v>
@@ -7897,7 +7901,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C180" s="1">
         <v>179</v>
@@ -7935,7 +7939,7 @@
         <v>180</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C181" s="1">
         <v>180</v>
@@ -7973,7 +7977,7 @@
         <v>181</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C182" s="1">
         <v>181</v>
@@ -8011,7 +8015,7 @@
         <v>182</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C183" s="1">
         <v>182</v>
@@ -8049,7 +8053,7 @@
         <v>183</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C184" s="1">
         <v>183</v>
@@ -8087,7 +8091,7 @@
         <v>184</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C185" s="1">
         <v>184</v>
@@ -8125,7 +8129,7 @@
         <v>185</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C186" s="1">
         <v>185</v>
@@ -8163,7 +8167,7 @@
         <v>186</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C187" s="1">
         <v>186</v>
@@ -8201,7 +8205,7 @@
         <v>187</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C188" s="1">
         <v>187</v>
@@ -8239,7 +8243,7 @@
         <v>188</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C189" s="1">
         <v>188</v>
@@ -8277,7 +8281,7 @@
         <v>189</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C190" s="1">
         <v>189</v>
@@ -8315,7 +8319,7 @@
         <v>190</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C191" s="1">
         <v>190</v>
@@ -8353,7 +8357,7 @@
         <v>191</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C192" s="1">
         <v>191</v>
@@ -8391,7 +8395,7 @@
         <v>192</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C193" s="5" t="s">
         <v>4</v>
@@ -8429,7 +8433,7 @@
         <v>193</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C194" s="5" t="s">
         <v>4</v>
@@ -8467,7 +8471,7 @@
         <v>194</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C195" s="5" t="s">
         <v>4</v>
@@ -8505,7 +8509,7 @@
         <v>195</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C196" s="5" t="s">
         <v>4</v>
@@ -8543,7 +8547,7 @@
         <v>196</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C197" s="5" t="s">
         <v>4</v>
@@ -8581,7 +8585,7 @@
         <v>197</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C198" s="5" t="s">
         <v>4</v>
@@ -8619,7 +8623,7 @@
         <v>198</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C199" s="5" t="s">
         <v>4</v>
@@ -8657,7 +8661,7 @@
         <v>199</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C200" s="5" t="s">
         <v>4</v>
@@ -8695,7 +8699,7 @@
         <v>200</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C201" s="5" t="s">
         <v>4</v>
@@ -8733,7 +8737,7 @@
         <v>201</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C202" s="5" t="s">
         <v>4</v>
@@ -8771,7 +8775,7 @@
         <v>202</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C203" s="5" t="s">
         <v>4</v>
